--- a/youtube_webscrab/Alex The Analyst.xlsx
+++ b/youtube_webscrab/Alex The Analyst.xlsx
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3869</v>
+        <v>4207</v>
       </c>
       <c r="E2" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45020</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20967</v>
+        <v>21470</v>
       </c>
       <c r="E3" t="n">
-        <v>1107</v>
+        <v>1130</v>
       </c>
       <c r="F3" t="n">
         <v>71</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5803</v>
+        <v>5885</v>
       </c>
       <c r="E4" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F4" t="n">
         <v>15</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33147</v>
+        <v>33670</v>
       </c>
       <c r="E5" t="n">
-        <v>1378</v>
+        <v>1408</v>
       </c>
       <c r="F5" t="n">
         <v>115</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9433</v>
+        <v>9469</v>
       </c>
       <c r="E6" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F6" t="n">
         <v>26</v>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10159</v>
+        <v>10167</v>
       </c>
       <c r="E7" t="n">
         <v>382</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8599</v>
+        <v>8701</v>
       </c>
       <c r="E8" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F8" t="n">
         <v>23</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10647</v>
+        <v>10717</v>
       </c>
       <c r="E9" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F9" t="n">
         <v>35</v>
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>271347</v>
+        <v>276263</v>
       </c>
       <c r="E10" t="n">
-        <v>5477</v>
+        <v>5546</v>
       </c>
       <c r="F10" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>44971</v>
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>224606</v>
+        <v>226447</v>
       </c>
       <c r="E11" t="n">
-        <v>13348</v>
+        <v>13397</v>
       </c>
       <c r="F11" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>44964</v>
@@ -809,13 +809,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>240082</v>
+        <v>242975</v>
       </c>
       <c r="E12" t="n">
-        <v>11293</v>
+        <v>11401</v>
       </c>
       <c r="F12" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>44957</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13418</v>
+        <v>13450</v>
       </c>
       <c r="E13" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F13" t="n">
         <v>20</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21031</v>
+        <v>21098</v>
       </c>
       <c r="E14" t="n">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F14" t="n">
         <v>98</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15500</v>
+        <v>15532</v>
       </c>
       <c r="E15" t="n">
         <v>526</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26118</v>
+        <v>26377</v>
       </c>
       <c r="E16" t="n">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="F16" t="n">
         <v>26</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>41422</v>
+        <v>41514</v>
       </c>
       <c r="E17" t="n">
-        <v>2258</v>
+        <v>2264</v>
       </c>
       <c r="F17" t="n">
         <v>216</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13395</v>
+        <v>13503</v>
       </c>
       <c r="E18" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F18" t="n">
         <v>35</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4404</v>
+        <v>4413</v>
       </c>
       <c r="E19" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F19" t="n">
         <v>10</v>
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>123855</v>
+        <v>124098</v>
       </c>
       <c r="E20" t="n">
-        <v>7118</v>
+        <v>7128</v>
       </c>
       <c r="F20" t="n">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>44915</v>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4847</v>
+        <v>4854</v>
       </c>
       <c r="E21" t="n">
         <v>163</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6756</v>
+        <v>6809</v>
       </c>
       <c r="E22" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F22" t="n">
         <v>18</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7974</v>
+        <v>8031</v>
       </c>
       <c r="E23" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F23" t="n">
         <v>18</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6373</v>
+        <v>6429</v>
       </c>
       <c r="E24" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>7788</v>
+        <v>7860</v>
       </c>
       <c r="E25" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5886</v>
+        <v>5894</v>
       </c>
       <c r="E26" t="n">
         <v>197</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6851</v>
+        <v>6914</v>
       </c>
       <c r="E27" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F27" t="n">
         <v>20</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7224</v>
+        <v>7293</v>
       </c>
       <c r="E28" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F28" t="n">
         <v>13</v>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13831</v>
+        <v>13941</v>
       </c>
       <c r="E29" t="n">
         <v>457</v>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5569</v>
+        <v>5570</v>
       </c>
       <c r="E30" t="n">
         <v>183</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15096</v>
+        <v>15231</v>
       </c>
       <c r="E31" t="n">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F31" t="n">
         <v>32</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>36052</v>
+        <v>36403</v>
       </c>
       <c r="E33" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="F33" t="n">
         <v>56</v>
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>8214</v>
+        <v>8221</v>
       </c>
       <c r="E34" t="n">
         <v>299</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6473</v>
+        <v>6478</v>
       </c>
       <c r="E35" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F35" t="n">
         <v>31</v>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13822</v>
+        <v>13829</v>
       </c>
       <c r="E36" t="n">
         <v>634</v>
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6509</v>
+        <v>6512</v>
       </c>
       <c r="E37" t="n">
         <v>213</v>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>92018</v>
+        <v>92656</v>
       </c>
       <c r="E38" t="n">
-        <v>2063</v>
+        <v>2070</v>
       </c>
       <c r="F38" t="n">
         <v>182</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>18291</v>
+        <v>18405</v>
       </c>
       <c r="E39" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="F39" t="n">
         <v>31</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>39366</v>
+        <v>39400</v>
       </c>
       <c r="E40" t="n">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="F40" t="n">
         <v>127</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>15150</v>
+        <v>15249</v>
       </c>
       <c r="E41" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F41" t="n">
         <v>24</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>19615</v>
+        <v>19801</v>
       </c>
       <c r="E42" t="n">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F42" t="n">
         <v>31</v>
@@ -1801,10 +1801,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>66628</v>
+        <v>66748</v>
       </c>
       <c r="E43" t="n">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="F43" t="n">
         <v>76</v>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6598</v>
+        <v>6600</v>
       </c>
       <c r="E44" t="n">
         <v>242</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>16627</v>
+        <v>16659</v>
       </c>
       <c r="E45" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F45" t="n">
         <v>94</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>25180</v>
+        <v>25335</v>
       </c>
       <c r="E46" t="n">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="F46" t="n">
         <v>35</v>
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>16044</v>
+        <v>16053</v>
       </c>
       <c r="E47" t="n">
         <v>748</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28372</v>
+        <v>28563</v>
       </c>
       <c r="E49" t="n">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="F49" t="n">
         <v>53</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>21431</v>
+        <v>21434</v>
       </c>
       <c r="E50" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F50" t="n">
         <v>126</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>33291</v>
+        <v>33503</v>
       </c>
       <c r="E51" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F51" t="n">
         <v>35</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15434</v>
+        <v>15469</v>
       </c>
       <c r="E52" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F52" t="n">
         <v>66</v>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>24078</v>
+        <v>24107</v>
       </c>
       <c r="E53" t="n">
         <v>700</v>
@@ -2153,7 +2153,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>42839</v>
+        <v>42855</v>
       </c>
       <c r="E54" t="n">
         <v>1608</v>
@@ -2185,13 +2185,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>47585</v>
+        <v>47931</v>
       </c>
       <c r="E55" t="n">
-        <v>1151</v>
+        <v>1162</v>
       </c>
       <c r="F55" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>44726</v>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>23202</v>
+        <v>23293</v>
       </c>
       <c r="E56" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F56" t="n">
         <v>68</v>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>14516</v>
+        <v>14539</v>
       </c>
       <c r="E57" t="n">
         <v>630</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>79583</v>
+        <v>80086</v>
       </c>
       <c r="E58" t="n">
-        <v>1962</v>
+        <v>1979</v>
       </c>
       <c r="F58" t="n">
         <v>139</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>79364</v>
+        <v>79508</v>
       </c>
       <c r="E59" t="n">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="F59" t="n">
         <v>226</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31590</v>
+        <v>31600</v>
       </c>
       <c r="E60" t="n">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="F60" t="n">
         <v>152</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>39780</v>
+        <v>39804</v>
       </c>
       <c r="E61" t="n">
         <v>1302</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>291491</v>
+        <v>292185</v>
       </c>
       <c r="E62" t="n">
-        <v>9135</v>
+        <v>9155</v>
       </c>
       <c r="F62" t="n">
         <v>179</v>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11290</v>
+        <v>11293</v>
       </c>
       <c r="E63" t="n">
         <v>316</v>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>30026</v>
+        <v>30039</v>
       </c>
       <c r="E65" t="n">
         <v>1306</v>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>15654</v>
+        <v>15662</v>
       </c>
       <c r="E66" t="n">
         <v>616</v>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6601</v>
+        <v>6600</v>
       </c>
       <c r="E67" t="n">
         <v>264</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>258627</v>
+        <v>259971</v>
       </c>
       <c r="E68" t="n">
-        <v>6672</v>
+        <v>6696</v>
       </c>
       <c r="F68" t="n">
         <v>504</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>19876</v>
+        <v>19885</v>
       </c>
       <c r="E69" t="n">
         <v>768</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>172038</v>
+        <v>172733</v>
       </c>
       <c r="E70" t="n">
-        <v>4399</v>
+        <v>4415</v>
       </c>
       <c r="F70" t="n">
         <v>174</v>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>41059</v>
+        <v>41118</v>
       </c>
       <c r="E71" t="n">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="F71" t="n">
         <v>113</v>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25051</v>
+        <v>25059</v>
       </c>
       <c r="E72" t="n">
         <v>995</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>86028</v>
+        <v>86126</v>
       </c>
       <c r="E73" t="n">
-        <v>4749</v>
+        <v>4752</v>
       </c>
       <c r="F73" t="n">
         <v>196</v>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>19447</v>
+        <v>19453</v>
       </c>
       <c r="E74" t="n">
         <v>699</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>34358</v>
+        <v>34524</v>
       </c>
       <c r="E75" t="n">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="F75" t="n">
         <v>36</v>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>21735</v>
+        <v>21737</v>
       </c>
       <c r="E76" t="n">
         <v>829</v>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>45725</v>
+        <v>45942</v>
       </c>
       <c r="E77" t="n">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="F77" t="n">
         <v>73</v>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>487250</v>
+        <v>487332</v>
       </c>
       <c r="E79" t="n">
-        <v>22061</v>
+        <v>22062</v>
       </c>
       <c r="F79" t="n">
         <v>644</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>55262</v>
+        <v>55536</v>
       </c>
       <c r="E80" t="n">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="F80" t="n">
         <v>71</v>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>92625</v>
+        <v>93111</v>
       </c>
       <c r="E81" t="n">
-        <v>2638</v>
+        <v>2649</v>
       </c>
       <c r="F81" t="n">
         <v>192</v>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>210002</v>
+        <v>210830</v>
       </c>
       <c r="E82" t="n">
-        <v>4584</v>
+        <v>4596</v>
       </c>
       <c r="F82" t="n">
         <v>151</v>
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>101577</v>
+        <v>101929</v>
       </c>
       <c r="E83" t="n">
-        <v>2356</v>
+        <v>2365</v>
       </c>
       <c r="F83" t="n">
         <v>236</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>46094</v>
+        <v>46260</v>
       </c>
       <c r="E84" t="n">
-        <v>1492</v>
+        <v>1501</v>
       </c>
       <c r="F84" t="n">
         <v>40</v>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>16402</v>
+        <v>16405</v>
       </c>
       <c r="E85" t="n">
         <v>894</v>
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>9535</v>
+        <v>9539</v>
       </c>
       <c r="E86" t="n">
         <v>842</v>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>10801</v>
+        <v>10802</v>
       </c>
       <c r="E87" t="n">
         <v>336</v>
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>16429</v>
+        <v>16435</v>
       </c>
       <c r="E88" t="n">
         <v>841</v>
@@ -3273,10 +3273,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>65171</v>
+        <v>65388</v>
       </c>
       <c r="E89" t="n">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="F89" t="n">
         <v>112</v>
@@ -3305,10 +3305,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>78547</v>
+        <v>78815</v>
       </c>
       <c r="E90" t="n">
-        <v>2070</v>
+        <v>2081</v>
       </c>
       <c r="F90" t="n">
         <v>57</v>
@@ -3337,10 +3337,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>279625</v>
+        <v>280499</v>
       </c>
       <c r="E91" t="n">
-        <v>7488</v>
+        <v>7511</v>
       </c>
       <c r="F91" t="n">
         <v>243</v>
@@ -3369,7 +3369,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>16847</v>
+        <v>16849</v>
       </c>
       <c r="E92" t="n">
         <v>709</v>
@@ -3433,13 +3433,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>132091</v>
+        <v>132385</v>
       </c>
       <c r="E94" t="n">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="F94" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>44432</v>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>74973</v>
+        <v>75005</v>
       </c>
       <c r="E95" t="n">
         <v>2064</v>
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>139684</v>
+        <v>139702</v>
       </c>
       <c r="E97" t="n">
         <v>4381</v>
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>47978</v>
+        <v>48058</v>
       </c>
       <c r="E98" t="n">
-        <v>2910</v>
+        <v>2917</v>
       </c>
       <c r="F98" t="n">
         <v>206</v>
@@ -3593,10 +3593,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>128291</v>
+        <v>128298</v>
       </c>
       <c r="E99" t="n">
-        <v>5585</v>
+        <v>5586</v>
       </c>
       <c r="F99" t="n">
         <v>363</v>
@@ -3625,10 +3625,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>213169</v>
+        <v>213865</v>
       </c>
       <c r="E100" t="n">
-        <v>6099</v>
+        <v>6105</v>
       </c>
       <c r="F100" t="n">
         <v>433</v>
@@ -3657,10 +3657,10 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>105151</v>
+        <v>105277</v>
       </c>
       <c r="E101" t="n">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="F101" t="n">
         <v>356</v>
@@ -3689,10 +3689,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>403463</v>
+        <v>403748</v>
       </c>
       <c r="E102" t="n">
-        <v>18090</v>
+        <v>18099</v>
       </c>
       <c r="F102" t="n">
         <v>571</v>
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>6087</v>
+        <v>6088</v>
       </c>
       <c r="E103" t="n">
         <v>240</v>
@@ -3753,10 +3753,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>25725</v>
+        <v>25747</v>
       </c>
       <c r="E104" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F104" t="n">
         <v>88</v>
@@ -3785,13 +3785,13 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>201861</v>
+        <v>202475</v>
       </c>
       <c r="E105" t="n">
-        <v>4701</v>
+        <v>4707</v>
       </c>
       <c r="F105" t="n">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>44341</v>
@@ -3817,13 +3817,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>254119</v>
+        <v>254425</v>
       </c>
       <c r="E106" t="n">
-        <v>4378</v>
+        <v>4383</v>
       </c>
       <c r="F106" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>44334</v>
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="E107" t="n">
         <v>194</v>
@@ -3881,13 +3881,13 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1105014</v>
+        <v>1107031</v>
       </c>
       <c r="E108" t="n">
-        <v>22603</v>
+        <v>22629</v>
       </c>
       <c r="F108" t="n">
-        <v>2498</v>
+        <v>2501</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>44320</v>
@@ -3913,10 +3913,10 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>170190</v>
+        <v>170585</v>
       </c>
       <c r="E109" t="n">
-        <v>4309</v>
+        <v>4321</v>
       </c>
       <c r="F109" t="n">
         <v>152</v>
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>259840</v>
+        <v>260189</v>
       </c>
       <c r="E111" t="n">
-        <v>9841</v>
+        <v>9849</v>
       </c>
       <c r="F111" t="n">
         <v>562</v>
@@ -4009,10 +4009,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>21841</v>
+        <v>21848</v>
       </c>
       <c r="E112" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F112" t="n">
         <v>86</v>
@@ -4041,10 +4041,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>134046</v>
+        <v>134205</v>
       </c>
       <c r="E113" t="n">
-        <v>3244</v>
+        <v>3251</v>
       </c>
       <c r="F113" t="n">
         <v>280</v>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>36188</v>
+        <v>36224</v>
       </c>
       <c r="E114" t="n">
         <v>1264</v>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>15498</v>
+        <v>15510</v>
       </c>
       <c r="E115" t="n">
         <v>463</v>
@@ -4137,10 +4137,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>172261</v>
+        <v>172632</v>
       </c>
       <c r="E116" t="n">
-        <v>3653</v>
+        <v>3664</v>
       </c>
       <c r="F116" t="n">
         <v>108</v>
@@ -4169,10 +4169,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>335759</v>
+        <v>335891</v>
       </c>
       <c r="E117" t="n">
-        <v>10706</v>
+        <v>10707</v>
       </c>
       <c r="F117" t="n">
         <v>1161</v>
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>51461</v>
+        <v>51463</v>
       </c>
       <c r="E118" t="n">
         <v>2393</v>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>19021</v>
+        <v>19026</v>
       </c>
       <c r="E119" t="n">
         <v>496</v>
@@ -4265,10 +4265,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>60364</v>
+        <v>60473</v>
       </c>
       <c r="E120" t="n">
-        <v>1895</v>
+        <v>1902</v>
       </c>
       <c r="F120" t="n">
         <v>82</v>
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>18235</v>
+        <v>18246</v>
       </c>
       <c r="E121" t="n">
         <v>356</v>
@@ -4329,10 +4329,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>175717</v>
+        <v>175852</v>
       </c>
       <c r="E122" t="n">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="F122" t="n">
         <v>360</v>
@@ -4361,13 +4361,13 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>67693</v>
+        <v>67940</v>
       </c>
       <c r="E123" t="n">
-        <v>1930</v>
+        <v>1940</v>
       </c>
       <c r="F123" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>44231</v>
@@ -4393,10 +4393,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>110360</v>
+        <v>110683</v>
       </c>
       <c r="E124" t="n">
-        <v>2721</v>
+        <v>2732</v>
       </c>
       <c r="F124" t="n">
         <v>100</v>
@@ -4457,10 +4457,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>88775</v>
+        <v>88849</v>
       </c>
       <c r="E126" t="n">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="F126" t="n">
         <v>285</v>
@@ -4489,10 +4489,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>123862</v>
+        <v>123946</v>
       </c>
       <c r="E127" t="n">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="F127" t="n">
         <v>243</v>
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>39684</v>
+        <v>39709</v>
       </c>
       <c r="E128" t="n">
         <v>1186</v>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>19957</v>
+        <v>19968</v>
       </c>
       <c r="E129" t="n">
         <v>1055</v>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>13479</v>
+        <v>13488</v>
       </c>
       <c r="E130" t="n">
         <v>449</v>
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>31576</v>
+        <v>31652</v>
       </c>
       <c r="E131" t="n">
         <v>1050</v>
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>37272</v>
+        <v>37294</v>
       </c>
       <c r="E133" t="n">
         <v>1101</v>
@@ -4745,7 +4745,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>39847</v>
+        <v>39881</v>
       </c>
       <c r="E135" t="n">
         <v>1380</v>
@@ -4777,10 +4777,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>58316</v>
+        <v>58401</v>
       </c>
       <c r="E136" t="n">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="F136" t="n">
         <v>127</v>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="E137" t="n">
         <v>91</v>
@@ -4841,10 +4841,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>155185</v>
+        <v>155595</v>
       </c>
       <c r="E138" t="n">
-        <v>2686</v>
+        <v>2695</v>
       </c>
       <c r="F138" t="n">
         <v>129</v>
@@ -4873,10 +4873,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21326</v>
+        <v>21341</v>
       </c>
       <c r="E139" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F139" t="n">
         <v>188</v>
@@ -4905,10 +4905,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>111800</v>
+        <v>112110</v>
       </c>
       <c r="E140" t="n">
-        <v>3191</v>
+        <v>3196</v>
       </c>
       <c r="F140" t="n">
         <v>145</v>
@@ -4969,7 +4969,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>22183</v>
+        <v>22197</v>
       </c>
       <c r="E142" t="n">
         <v>815</v>
@@ -5001,7 +5001,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>13348</v>
+        <v>13354</v>
       </c>
       <c r="E143" t="n">
         <v>526</v>
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>145297</v>
+        <v>145733</v>
       </c>
       <c r="E144" t="n">
-        <v>6310</v>
+        <v>6323</v>
       </c>
       <c r="F144" t="n">
         <v>177</v>
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>21507</v>
+        <v>21513</v>
       </c>
       <c r="E146" t="n">
         <v>585</v>
@@ -5129,7 +5129,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>10864</v>
+        <v>10869</v>
       </c>
       <c r="E147" t="n">
         <v>331</v>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>69958</v>
+        <v>69983</v>
       </c>
       <c r="E148" t="n">
         <v>3403</v>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12561</v>
+        <v>12570</v>
       </c>
       <c r="E150" t="n">
         <v>530</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>121176</v>
+        <v>121261</v>
       </c>
       <c r="E151" t="n">
-        <v>3955</v>
+        <v>3959</v>
       </c>
       <c r="F151" t="n">
         <v>274</v>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>166898</v>
+        <v>166974</v>
       </c>
       <c r="E152" t="n">
-        <v>5945</v>
+        <v>5947</v>
       </c>
       <c r="F152" t="n">
         <v>972</v>
@@ -5353,10 +5353,10 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>95397</v>
+        <v>95430</v>
       </c>
       <c r="E154" t="n">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="F154" t="n">
         <v>274</v>
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>74450</v>
+        <v>74451</v>
       </c>
       <c r="E156" t="n">
         <v>2783</v>
@@ -5481,10 +5481,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>41990</v>
+        <v>42024</v>
       </c>
       <c r="E158" t="n">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="F158" t="n">
         <v>694</v>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>13970</v>
+        <v>13974</v>
       </c>
       <c r="E159" t="n">
         <v>589</v>
@@ -5545,10 +5545,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>404575</v>
+        <v>404658</v>
       </c>
       <c r="E160" t="n">
-        <v>11879</v>
+        <v>11882</v>
       </c>
       <c r="F160" t="n">
         <v>3758</v>
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>42281</v>
+        <v>42302</v>
       </c>
       <c r="E161" t="n">
         <v>1298</v>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>17911</v>
+        <v>17923</v>
       </c>
       <c r="E162" t="n">
         <v>624</v>
@@ -5641,7 +5641,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>10607</v>
+        <v>10614</v>
       </c>
       <c r="E163" t="n">
         <v>192</v>
@@ -5705,10 +5705,10 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>125525</v>
+        <v>125559</v>
       </c>
       <c r="E165" t="n">
-        <v>4565</v>
+        <v>4568</v>
       </c>
       <c r="F165" t="n">
         <v>273</v>
@@ -5737,10 +5737,10 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>867626</v>
+        <v>868241</v>
       </c>
       <c r="E166" t="n">
-        <v>18789</v>
+        <v>18796</v>
       </c>
       <c r="F166" t="n">
         <v>1038</v>
@@ -5769,7 +5769,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>28550</v>
+        <v>28561</v>
       </c>
       <c r="E167" t="n">
         <v>510</v>
@@ -5801,10 +5801,10 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>699793</v>
+        <v>700730</v>
       </c>
       <c r="E168" t="n">
-        <v>14539</v>
+        <v>14564</v>
       </c>
       <c r="F168" t="n">
         <v>413</v>
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>49624</v>
+        <v>49641</v>
       </c>
       <c r="E170" t="n">
         <v>1304</v>
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>693130</v>
+        <v>693330</v>
       </c>
       <c r="E171" t="n">
-        <v>18010</v>
+        <v>18015</v>
       </c>
       <c r="F171" t="n">
         <v>559</v>
@@ -5929,10 +5929,10 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>54162</v>
+        <v>54174</v>
       </c>
       <c r="E172" t="n">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="F172" t="n">
         <v>94</v>
@@ -5961,10 +5961,10 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>169456</v>
+        <v>169524</v>
       </c>
       <c r="E173" t="n">
-        <v>8934</v>
+        <v>8936</v>
       </c>
       <c r="F173" t="n">
         <v>409</v>
@@ -5993,13 +5993,13 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>698020</v>
+        <v>698468</v>
       </c>
       <c r="E174" t="n">
-        <v>22189</v>
+        <v>22201</v>
       </c>
       <c r="F174" t="n">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G174" s="2" t="n">
         <v>43992</v>
@@ -6025,10 +6025,10 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>51749</v>
+        <v>51986</v>
       </c>
       <c r="E175" t="n">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="F175" t="n">
         <v>59</v>
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>8552</v>
+        <v>8555</v>
       </c>
       <c r="E176" t="n">
         <v>233</v>
@@ -6089,10 +6089,10 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>20901</v>
+        <v>20920</v>
       </c>
       <c r="E177" t="n">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F177" t="n">
         <v>27</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>52724</v>
+        <v>52799</v>
       </c>
       <c r="E178" t="n">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="F178" t="n">
         <v>31</v>
@@ -6153,10 +6153,10 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>93473</v>
+        <v>93538</v>
       </c>
       <c r="E179" t="n">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="F179" t="n">
         <v>97</v>
@@ -6185,10 +6185,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>67254</v>
+        <v>67270</v>
       </c>
       <c r="E180" t="n">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="F180" t="n">
         <v>65</v>
@@ -6217,10 +6217,10 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>14577</v>
+        <v>14580</v>
       </c>
       <c r="E181" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F181" t="n">
         <v>50</v>
@@ -6249,10 +6249,10 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>51568</v>
+        <v>51798</v>
       </c>
       <c r="E182" t="n">
-        <v>1471</v>
+        <v>1476</v>
       </c>
       <c r="F182" t="n">
         <v>87</v>
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>61921</v>
+        <v>62208</v>
       </c>
       <c r="E183" t="n">
-        <v>2018</v>
+        <v>2027</v>
       </c>
       <c r="F183" t="n">
         <v>48</v>
@@ -6313,10 +6313,10 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>128287</v>
+        <v>128708</v>
       </c>
       <c r="E184" t="n">
-        <v>3620</v>
+        <v>3632</v>
       </c>
       <c r="F184" t="n">
         <v>256</v>
@@ -6345,10 +6345,10 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>101232</v>
+        <v>101621</v>
       </c>
       <c r="E185" t="n">
-        <v>2375</v>
+        <v>2384</v>
       </c>
       <c r="F185" t="n">
         <v>91</v>
@@ -6377,13 +6377,13 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>205600</v>
+        <v>206373</v>
       </c>
       <c r="E186" t="n">
-        <v>4072</v>
+        <v>4084</v>
       </c>
       <c r="F186" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G186" s="2" t="n">
         <v>43909</v>
@@ -6409,10 +6409,10 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>122135</v>
+        <v>122154</v>
       </c>
       <c r="E187" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="F187" t="n">
         <v>270</v>
@@ -6441,10 +6441,10 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>117914</v>
+        <v>118450</v>
       </c>
       <c r="E188" t="n">
-        <v>3794</v>
+        <v>3806</v>
       </c>
       <c r="F188" t="n">
         <v>167</v>
@@ -6473,10 +6473,10 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>122778</v>
+        <v>123371</v>
       </c>
       <c r="E189" t="n">
-        <v>2678</v>
+        <v>2686</v>
       </c>
       <c r="F189" t="n">
         <v>82</v>
@@ -6505,10 +6505,10 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>180922</v>
+        <v>181755</v>
       </c>
       <c r="E190" t="n">
-        <v>3252</v>
+        <v>3261</v>
       </c>
       <c r="F190" t="n">
         <v>134</v>
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>590923</v>
+        <v>593043</v>
       </c>
       <c r="E191" t="n">
-        <v>9390</v>
+        <v>9408</v>
       </c>
       <c r="F191" t="n">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="G191" s="2" t="n">
         <v>43891</v>
@@ -6569,7 +6569,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>24241</v>
+        <v>24248</v>
       </c>
       <c r="E192" t="n">
         <v>826</v>
@@ -6601,10 +6601,10 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>21859</v>
+        <v>21871</v>
       </c>
       <c r="E193" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F193" t="n">
         <v>43</v>
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>11022</v>
+        <v>11030</v>
       </c>
       <c r="E195" t="n">
         <v>503</v>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>46468</v>
+        <v>46483</v>
       </c>
       <c r="E196" t="n">
         <v>1711</v>
@@ -6729,10 +6729,10 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>101907</v>
+        <v>101990</v>
       </c>
       <c r="E197" t="n">
-        <v>3069</v>
+        <v>3071</v>
       </c>
       <c r="F197" t="n">
         <v>93</v>
@@ -6761,10 +6761,10 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>60729</v>
+        <v>60762</v>
       </c>
       <c r="E198" t="n">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="F198" t="n">
         <v>64</v>
@@ -6793,7 +6793,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>13364</v>
+        <v>13374</v>
       </c>
       <c r="E199" t="n">
         <v>368</v>
@@ -6825,10 +6825,10 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>57235</v>
+        <v>57268</v>
       </c>
       <c r="E200" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F200" t="n">
         <v>224</v>
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>7133</v>
+        <v>7138</v>
       </c>
       <c r="E201" t="n">
         <v>272</v>
@@ -6889,10 +6889,10 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>25938</v>
+        <v>25949</v>
       </c>
       <c r="E202" t="n">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="F202" t="n">
         <v>137</v>
